--- a/target/test-classes/test.xlsx
+++ b/target/test-classes/test.xlsx
@@ -22,10 +22,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>seleniumlearning96@gmail.com</t>
+    <t>sdsgds6dsf@gsfdrcd.com</t>
   </si>
   <si>
-    <t>Abcd1234#</t>
+    <t>testdf</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
